--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413156.832442178</v>
+        <v>-416722.3343157275</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12130713.91937378</v>
+        <v>12127174.04303127</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>165.416305342953</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>2.548080198155589</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>28.46632018740045</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>38.92961274497208</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.921027660834191</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>120.4995097777146</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>21.86617863222227</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>160.4904718355045</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>2.400034639828446</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1029,7 +1029,7 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>151.5728472065628</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1066,61 +1066,61 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>76.74086563202125</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>337.0695637011257</v>
       </c>
       <c r="G8" t="n">
-        <v>121.7369933198664</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.53026179397022</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -1309,7 +1309,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1370,7 +1370,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>265.9878218959809</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>84.65521796477219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177846</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>87.89867428913908</v>
+        <v>78.24049239360367</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>80.68385644399694</v>
       </c>
       <c r="H14" t="n">
-        <v>106.4741046921194</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>3.520232184569036</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>42.23968898157148</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
         <v>236.929075365811</v>
@@ -1910,7 +1910,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730213</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G23" t="n">
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059302</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X23" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="26">
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
-        <v>295.2524720077822</v>
+        <v>295.2524720077823</v>
       </c>
       <c r="D26" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
-        <v>318.7342196110055</v>
+        <v>318.7342196110056</v>
       </c>
       <c r="G26" t="n">
         <v>315.0398534825604</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414339</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404351</v>
       </c>
       <c r="T26" t="n">
-        <v>127.274321941861</v>
+        <v>127.2743219418611</v>
       </c>
       <c r="U26" t="n">
-        <v>159.2039277954309</v>
+        <v>159.203927795431</v>
       </c>
       <c r="V26" t="n">
-        <v>244.6944667292003</v>
+        <v>244.6944667292004</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007184</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035424</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219397</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507308</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484035</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723248</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380453</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497646</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943237</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049597</v>
@@ -2767,16 +2767,16 @@
         <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662017</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C29" t="n">
         <v>295.2524720077822</v>
@@ -2798,7 +2798,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2852,13 +2852,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X29" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049597</v>
@@ -3007,13 +3007,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="38">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1443.223555374323</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="C2" t="n">
-        <v>1443.223555374323</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="D2" t="n">
-        <v>1276.13637826023</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>95.16671432390655</v>
       </c>
       <c r="K2" t="n">
-        <v>365.4243013579072</v>
+        <v>95.16671432390655</v>
       </c>
       <c r="L2" t="n">
-        <v>858.744593076436</v>
+        <v>588.4870060424354</v>
       </c>
       <c r="M2" t="n">
-        <v>858.744593076436</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713898</v>
+        <v>1102.089684652124</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606226</v>
+        <v>1542.129285544452</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="U2" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="V2" t="n">
-        <v>1832.676160441267</v>
+        <v>2034.595605720469</v>
       </c>
       <c r="W2" t="n">
-        <v>1832.676160441267</v>
+        <v>1663.596570688756</v>
       </c>
       <c r="X2" t="n">
-        <v>1443.223555374323</v>
+        <v>1274.143965621813</v>
       </c>
       <c r="Y2" t="n">
-        <v>1443.223555374323</v>
+        <v>1274.143965621813</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.797229703235</v>
+        <v>733.1765977824091</v>
       </c>
       <c r="C3" t="n">
-        <v>682.1429992633272</v>
+        <v>582.5223673425013</v>
       </c>
       <c r="D3" t="n">
-        <v>552.0540318848075</v>
+        <v>452.4333999639816</v>
       </c>
       <c r="E3" t="n">
-        <v>415.6075409956952</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>291.175734878827</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>171.1159169506915</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>82.81850055129242</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L3" t="n">
-        <v>476.3497876767088</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.608572686801</v>
+        <v>1151.786993484067</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.867357696894</v>
+        <v>1665.389672093756</v>
       </c>
       <c r="O3" t="n">
-        <v>2069.387640287875</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737748</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="U3" t="n">
-        <v>1805.872106214323</v>
+        <v>1706.251474293497</v>
       </c>
       <c r="V3" t="n">
-        <v>1583.33210458539</v>
+        <v>1483.711472664565</v>
       </c>
       <c r="W3" t="n">
-        <v>1353.214858718677</v>
+        <v>1253.594226797851</v>
       </c>
       <c r="X3" t="n">
-        <v>1163.907781068689</v>
+        <v>1064.287149147863</v>
       </c>
       <c r="Y3" t="n">
-        <v>984.5935641441963</v>
+        <v>884.9729322233704</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6875846330377</v>
+        <v>219.7785407183416</v>
       </c>
       <c r="C4" t="n">
-        <v>354.6875846330377</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0544715355525</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>209.7573006568929</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>823.2260053931614</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>823.2260053931614</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>823.2260053931614</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>823.2260053931614</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>823.2260053931614</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>539.8956033243389</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X4" t="n">
-        <v>539.8956033243389</v>
+        <v>442.8906019016982</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.8956033243389</v>
+        <v>219.7785407183416</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1197.635903810283</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="C5" t="n">
-        <v>1197.635903810283</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="D5" t="n">
-        <v>1197.635903810283</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.635903810283</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F5" t="n">
-        <v>780.7414653402611</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475497</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>863.1114204565973</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1376.714099066286</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697128</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="O5" t="n">
-        <v>2106.518148697128</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P5" t="n">
-        <v>2106.518148697128</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737748</v>
+        <v>2037.169424102444</v>
       </c>
       <c r="T5" t="n">
-        <v>1951.282367297165</v>
+        <v>1813.668821661861</v>
       </c>
       <c r="U5" t="n">
-        <v>1929.195318173708</v>
+        <v>1557.91609209646</v>
       </c>
       <c r="V5" t="n">
-        <v>1587.088508877227</v>
+        <v>1395.804504383829</v>
       </c>
       <c r="W5" t="n">
-        <v>1587.088508877227</v>
+        <v>1395.804504383829</v>
       </c>
       <c r="X5" t="n">
-        <v>1197.635903810283</v>
+        <v>1006.351899316886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1197.635903810283</v>
+        <v>1006.351899316886</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>712.7726751562662</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="C6" t="n">
-        <v>562.1184447163585</v>
+        <v>556.1927859813175</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>426.1038186027978</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442686</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653866</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>921.5731989359462</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>1435.175877545634</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816922</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813764</v>
       </c>
       <c r="U6" t="n">
-        <v>1685.847551667355</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1463.307550038422</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1233.190304171709</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1043.88322652172</v>
+        <v>887.3033373467715</v>
       </c>
       <c r="Y6" t="n">
-        <v>864.5690095972276</v>
+        <v>707.9891204222788</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>759.7346632450061</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C7" t="n">
-        <v>589.5295453109953</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D7" t="n">
-        <v>433.8964322135101</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E7" t="n">
-        <v>278.3376200727126</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F7" t="n">
-        <v>121.0116852856855</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633845</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>865.4342434069604</v>
       </c>
     </row>
     <row r="8">
@@ -4778,49 +4778,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1375.198722157411</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="C8" t="n">
-        <v>1375.198722157411</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="D8" t="n">
-        <v>989.7575933740784</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="E8" t="n">
-        <v>587.1740684906229</v>
+        <v>939.2871492898896</v>
       </c>
       <c r="F8" t="n">
-        <v>170.2796300206006</v>
+        <v>598.8128425210757</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>540.6332618200724</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1086.634161864653</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1614.445445502115</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="X8" t="n">
-        <v>1771.689431236809</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="Y8" t="n">
-        <v>1375.198722157411</v>
+        <v>1339.781895001287</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.5880110330252</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>714.3828930990144</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7497800015292</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>558.7497800015292</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4238452145021</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.856237801877</v>
+        <v>1913.97721762716</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451001</v>
+        <v>1645.302650055462</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813863</v>
+        <v>1331.657796418324</v>
       </c>
       <c r="E11" t="n">
-        <v>726.044908076601</v>
+        <v>1000.870546681062</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527726</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527726</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654572</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5072,19 +5072,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2405.267789429136</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2106.065029543617</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X11" t="n">
-        <v>2106.065029543617</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.554708367079</v>
+        <v>2242.675688192363</v>
       </c>
     </row>
     <row r="12">
@@ -5121,16 +5121,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1634.317313094942</v>
       </c>
       <c r="O12" t="n">
         <v>1740.468202408463</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>328.1273454378274</v>
+        <v>389.2415542673289</v>
       </c>
       <c r="C13" t="n">
-        <v>229.7185026500105</v>
+        <v>389.2415542673289</v>
       </c>
       <c r="D13" t="n">
-        <v>145.8816646987191</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>305.4047163160375</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>219.8750566752043</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5206,13 +5206,13 @@
         <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5230,19 +5230,19 @@
         <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245443</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915625</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="W13" t="n">
-        <v>530.325628668934</v>
+        <v>743.9681452808389</v>
       </c>
       <c r="X13" t="n">
-        <v>530.325628668934</v>
+        <v>581.6840982100159</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.5390889829349</v>
+        <v>502.6532978124363</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1888.485543579474</v>
+        <v>1459.710229057664</v>
       </c>
       <c r="C14" t="n">
-        <v>1567.106317228598</v>
+        <v>1138.331002706788</v>
       </c>
       <c r="D14" t="n">
-        <v>1253.46146359146</v>
+        <v>1138.331002706788</v>
       </c>
       <c r="E14" t="n">
-        <v>922.6742138541986</v>
+        <v>807.5437529695268</v>
       </c>
       <c r="F14" t="n">
-        <v>577.57605053037</v>
+        <v>462.4455896456984</v>
       </c>
       <c r="G14" t="n">
-        <v>236.2095701645673</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,7 +5294,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V14" t="n">
-        <v>2859.534777998631</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2859.534777998631</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2541.878448077882</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2217.184014144677</v>
+        <v>1788.408699622868</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
         <v>1223.947919817482</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>316.9565686277457</v>
+        <v>426.3522468384177</v>
       </c>
       <c r="C16" t="n">
-        <v>313.4007785423227</v>
+        <v>327.9434040506007</v>
       </c>
       <c r="D16" t="n">
-        <v>229.5639405910313</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="E16" t="n">
-        <v>145.8014035964277</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="F16" t="n">
-        <v>145.8014035964277</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>145.8014035964277</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1454.06628930787</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1323.046480636613</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.685342236449</v>
+        <v>1159.123703951041</v>
       </c>
       <c r="U16" t="n">
-        <v>1149.685342236449</v>
+        <v>945.4811873391354</v>
       </c>
       <c r="V16" t="n">
-        <v>955.5022722034674</v>
+        <v>751.2981173061536</v>
       </c>
       <c r="W16" t="n">
-        <v>743.9681452808389</v>
+        <v>539.7639903835252</v>
       </c>
       <c r="X16" t="n">
-        <v>581.6840982100159</v>
+        <v>539.7639903835252</v>
       </c>
       <c r="Y16" t="n">
-        <v>430.3683121728531</v>
+        <v>539.7639903835252</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
         <v>1098.796330498592</v>
@@ -5501,31 +5501,31 @@
         <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129444</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
         <v>2572.923332933306</v>
@@ -5546,7 +5546,7 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5601,13 +5601,13 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1634.317313094942</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5683,40 +5683,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="20">
@@ -5735,19 +5735,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975445</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5777,22 +5777,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5826,7 +5826,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
@@ -5838,10 +5838,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O21" t="n">
         <v>1740.468202408463</v>
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K22" t="n">
         <v>143.9541688140574</v>
@@ -5923,37 +5923,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386233</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q22" t="n">
         <v>1090.581152532862</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099313</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L23" t="n">
         <v>1059.071548358934</v>
@@ -6005,7 +6005,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6017,10 +6017,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
@@ -6029,7 +6029,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6063,7 +6063,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J24" t="n">
         <v>175.2341099238429</v>
@@ -6075,10 +6075,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229933</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>435.0968109750512</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>621.3883893133152</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445244</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862324</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="26">
@@ -6200,55 +6200,55 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>303.7986541368136</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>662.7810101642755</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1249.152663612378</v>
       </c>
       <c r="M26" t="n">
-        <v>1795.153563656959</v>
+        <v>1888.204925386532</v>
       </c>
       <c r="N26" t="n">
-        <v>2416.016209023994</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
         <v>2949.107171645896</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
         <v>3596.670073605752</v>
@@ -6257,7 +6257,7 @@
         <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6312,7 +6312,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985348</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517124</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796859</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192008</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286445</v>
+        <v>861.9084564286444</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026476</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142182</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>3079.395388107029</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517125</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879675</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746014</v>
       </c>
       <c r="H31" t="n">
         <v>111.518603023284</v>
@@ -6619,52 +6619,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796862</v>
+        <v>136.6424780796857</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.382657846367</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057093</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835512</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>783.7258626311921</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1362.456337195729</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1908.457237240309</v>
+        <v>1722.160576876728</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877772</v>
+        <v>2293.032006377474</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.3081217701</v>
+        <v>2733.071607269802</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901622</v>
+        <v>3081.259099401324</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042571</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>182.662530460489</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210287</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929721</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404865</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245264</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652541</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597522</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374206</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>231.2685546898323</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>395.3961945636321</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194702</v>
+        <v>693.3398934768788</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770949</v>
+        <v>876.529527508088</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1150.886415124779</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1270.762580901358</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027482</v>
       </c>
     </row>
     <row r="35">
@@ -6920,19 +6920,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975451</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6965,22 +6965,22 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K36" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L36" t="n">
-        <v>175.2341099238429</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>803.0057595505241</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.783730761083</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O36" t="n">
-        <v>1975.304013352064</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K37" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7163,16 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7248,28 +7248,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L39" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M39" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7321,37 +7321,37 @@
         <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072216</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>965.7235964838002</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7366,13 +7366,13 @@
         <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y40" t="n">
         <v>289.463261197452</v>
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7436,10 +7436,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
         <v>2855.219708188068</v>
@@ -7485,28 +7485,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>381.858273766342</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1009.629923393023</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>2181.928177194563</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2181.928177194563</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7549,7 +7549,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E43" t="n">
         <v>149.5651460634914</v>
@@ -7558,37 +7558,37 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>776.8456480823215</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1059.426580900608</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
         <v>1098.202162476281</v>
@@ -7612,7 +7612,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7640,16 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7664,19 +7664,19 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U44" t="n">
         <v>2855.219708188068</v>
@@ -7722,7 +7722,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
         <v>175.2341099238429</v>
@@ -7731,19 +7731,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7786,7 +7786,7 @@
         <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218804</v>
       </c>
       <c r="E46" t="n">
         <v>149.5651460634914</v>
@@ -7795,31 +7795,31 @@
         <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072677</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462919</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M46" t="n">
-        <v>623.4297566485496</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7849,7 +7849,7 @@
         <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974524</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>171.8853607378694</v>
       </c>
       <c r="K2" t="n">
-        <v>468.2388496066638</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8058,25 +8058,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837489</v>
+        <v>611.1777065035425</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083972</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>269.8669267356327</v>
       </c>
       <c r="P3" t="n">
-        <v>193.5432935565604</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,13 +8219,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>474.4360937345008</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920147</v>
       </c>
       <c r="O5" t="n">
         <v>149.5638374240964</v>
@@ -8234,7 +8234,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>213.4530631058872</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,19 +8295,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999654</v>
+        <v>378.6385200912989</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431195</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>556.6502691852513</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8538,10 +8538,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>454.5321323046934</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095482</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8769,7 +8769,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,10 +8778,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>656.2283997181323</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>199.9106794075977</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475127</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,7 +9012,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
         <v>85.37211285416666</v>
@@ -9249,16 +9249,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O18" t="n">
-        <v>199.9106794075977</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488188</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9486,13 +9486,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9723,13 +9723,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9960,10 +9960,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10434,10 +10434,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,13 +10662,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
@@ -10680,7 +10680,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.3264449482919</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q36" t="n">
         <v>90.98815315591399</v>
@@ -10899,10 +10899,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>263.0728605086217</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
@@ -10911,7 +10911,7 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>291.5199566763059</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11379,22 +11379,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>52.17761219138585</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372788</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.7922716291008</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465757</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>61.90395388765205</v>
+        <v>71.56213578318746</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>257.268959118148</v>
       </c>
       <c r="H14" t="n">
-        <v>143.289802842323</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,19 +23549,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>93.90452217536969</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456101</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.343978097445429</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
     </row>
     <row r="18">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1057045.188903031</v>
+        <v>1055240.54606175</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1057045.188903031</v>
+        <v>1055240.54606175</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>953900.3867871434</v>
+        <v>953900.3867871431</v>
       </c>
     </row>
     <row r="7">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="C2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.267140035</v>
       </c>
       <c r="D2" t="n">
-        <v>270498.2671400351</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="E2" t="n">
-        <v>239038.5351366011</v>
+        <v>239038.535136601</v>
       </c>
       <c r="F2" t="n">
-        <v>239038.535136601</v>
+        <v>239038.5351366007</v>
       </c>
       <c r="G2" t="n">
-        <v>270498.2671400353</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="H2" t="n">
         <v>270498.2671400352</v>
@@ -26335,19 +26335,19 @@
         <v>270498.2671400352</v>
       </c>
       <c r="J2" t="n">
-        <v>270498.2671400354</v>
+        <v>270498.2671400355</v>
       </c>
       <c r="K2" t="n">
-        <v>270498.2671400355</v>
+        <v>270498.2671400356</v>
       </c>
       <c r="L2" t="n">
+        <v>270498.2671400358</v>
+      </c>
+      <c r="M2" t="n">
+        <v>270498.2671400351</v>
+      </c>
+      <c r="N2" t="n">
         <v>270498.2671400353</v>
-      </c>
-      <c r="M2" t="n">
-        <v>270498.2671400353</v>
-      </c>
-      <c r="N2" t="n">
-        <v>270498.2671400352</v>
       </c>
       <c r="O2" t="n">
         <v>270498.2671400352</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340551</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401347</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668203</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
-        <v>206802.1491945026</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.2417753968</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962301</v>
+        <v>43252.5244708112</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.69404277108</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26436,7 +26436,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
-        <v>199269.1699682603</v>
+        <v>199269.1699682604</v>
       </c>
       <c r="J4" t="n">
         <v>200019.6624326434</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,7 +26479,7 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.0196998405</v>
       </c>
       <c r="G5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-210815.2949057138</v>
+        <v>-205862.3014776587</v>
       </c>
       <c r="C6" t="n">
-        <v>-28610.34661385792</v>
+        <v>-32003.64444360374</v>
       </c>
       <c r="D6" t="n">
-        <v>-36931.18699942747</v>
+        <v>-44667.47622281889</v>
       </c>
       <c r="E6" t="n">
-        <v>-77780.29951396209</v>
+        <v>-77990.03106065175</v>
       </c>
       <c r="F6" t="n">
-        <v>34342.2619600824</v>
+        <v>34132.53041339262</v>
       </c>
       <c r="G6" t="n">
-        <v>-34365.99768042655</v>
+        <v>-34365.99768042681</v>
       </c>
       <c r="H6" t="n">
         <v>13059.32785625517</v>
       </c>
       <c r="I6" t="n">
-        <v>13059.3278562552</v>
+        <v>13059.32785625514</v>
       </c>
       <c r="J6" t="n">
-        <v>-199982.5897410301</v>
+        <v>-193466.3045864567</v>
       </c>
       <c r="K6" t="n">
-        <v>6819.559453472517</v>
+        <v>6819.559453472633</v>
       </c>
       <c r="L6" t="n">
-        <v>-48363.02948114876</v>
+        <v>-52411.86669162053</v>
       </c>
       <c r="M6" t="n">
-        <v>-29141.50160336771</v>
+        <v>-30193.19661455607</v>
       </c>
       <c r="N6" t="n">
-        <v>13059.32785625523</v>
+        <v>13059.3278562553</v>
       </c>
       <c r="O6" t="n">
-        <v>-14708.36618651592</v>
+        <v>-14708.36618651582</v>
       </c>
       <c r="P6" t="n">
-        <v>13059.32785625532</v>
+        <v>13059.32785625533</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>71.07831239473194</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26704,16 +26704,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.7096175534639</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.070302219246</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551348</v>
+        <v>17.58004954287453</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346384</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971647</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085254</v>
       </c>
       <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.7096175534639</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506446</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,7 +27382,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>216.1704121525459</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27436,10 +27436,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>336.1376610053612</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.6157057928207</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.963768703235445</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>158.5820390938365</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.162469696034236</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,16 +27594,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27670,10 +27670,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>231.3290236375251</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>178.1952693680123</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>132.6819913403927</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27749,7 +27749,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>56.38966468158179</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>89.83064772952766</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>144.1400749395018</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>75.65593038419627</v>
       </c>
       <c r="G8" t="n">
-        <v>287.2941346370104</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>119.825676710418</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28755,13 +28755,13 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>128.2979821082769</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28995,10 +28995,10 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>128.2979821082769</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y23" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="24">
@@ -29193,37 +29193,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J25" t="n">
-        <v>35.71049010668816</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="S25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="26">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599524</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M26" t="n">
-        <v>86.65052755599584</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431643</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.2722376590126</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="32">
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>86.27291196566455</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>43.49509683160022</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29791,31 +29791,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000709</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861254088</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224735</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30171,7 +30171,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634529035</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,13 +30183,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.297982108277</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,31 +30639,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.01250026485285</v>
+        <v>5.636002634529465</v>
       </c>
       <c r="R43" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,22 +30879,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>5.636002634529603</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>54.20552279552333</v>
       </c>
       <c r="K2" t="n">
-        <v>325.1804464274264</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>177.1793678467438</v>
       </c>
       <c r="P3" t="n">
-        <v>106.4599287372458</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,13 +34939,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>321.1879240040091</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>68.95436468749502</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,19 +35015,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200684619</v>
+        <v>286.2513980419869</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542306</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>407.086431761155</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>362.1450102553815</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35489,7 +35489,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,10 +35498,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>570.8562868639657</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>107.2231205187088</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065875</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,7 +35732,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35969,16 +35969,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>107.2231205187088</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36051,19 +36051,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>313.3380164832357</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>249.385018246236</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835579</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36206,13 +36206,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453562</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>249.3850182462351</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>294.0834769302967</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835664</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>232.7614092820842</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>638.1665882070873</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>445.6958119809041</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>280.7039614853755</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>247.8874524576761</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215736</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446891</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039237</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698316</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>584.5762369338755</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>576.6378075765114</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
@@ -37087,10 +37087,10 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.492606783769</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273765</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
-        <v>203.7545029874997</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>110.325106032626</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
@@ -37400,7 +37400,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.2430801289772</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37467,7 +37467,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.421497456549</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634528176</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
@@ -37631,7 +37631,7 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37722,7 +37722,7 @@
         <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>200.5318035203919</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.46926427500534</v>
+        <v>9.092766644681948</v>
       </c>
       <c r="R43" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38175,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133946</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>190.6760370094884</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
